--- a/Model_input/22-03-2023/NEVO_synonyms_exceptions.xlsx
+++ b/Model_input/22-03-2023/NEVO_synonyms_exceptions.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/maike_vanrooijen_wur_nl/Documents/05. PhD project/Paper 1; reducing householdfood waste by meal plans/Data/Recipe data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/maike_vanrooijen_wur_nl/Documents/05. PhD project/Paper 1; reducing householdfood waste by meal plans/2. Model input/22-03-2023 (github sources)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="11_F25DC773A252ABDACC10488821DF7E645ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C81140-3352-4BAF-8C82-8C933D571FA0}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="11_F25DC773A252ABDACC10488821DF7E645ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F77FD4AB-CCFC-4EE6-8340-23F2AC3C6E45}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="210" windowWidth="28770" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +36,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={7D0EE02E-CBE4-48FE-B2F9-B789E0AEBE04}</author>
     <author>tc={62039513-6902-4492-920F-F5A388E475C0}</author>
-    <author>tc={DB83DD4B-E19C-4E8B-99D7-6F9A8F7CC0A5}</author>
     <author>tc={59BC5554-BFA1-46BF-9828-A270F56E3B18}</author>
     <author>tc={1279AFAD-A42C-4246-A791-793FBB8AFE46}</author>
     <author>tc={9864A5EC-2E25-483C-BA0B-F3F399F44829}</author>
@@ -55,17 +52,7 @@
     <author>tc={5A049A96-0451-49A1-B981-30A0124DBAC1}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7D0EE02E-CBE4-48FE-B2F9-B789E0AEBE04}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    default * dit is voor de voedingsstoffen.
-Reply:
-    Maar sommige exceptions heb ik nodig voor de verpakkingsgroottes</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{62039513-6902-4492-920F-F5A388E475C0}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{62039513-6902-4492-920F-F5A388E475C0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,15 +60,7 @@
     1 if the conversed quantity of the product should be taken into account for the package size; 0 otherwise</t>
       </text>
     </comment>
-    <comment ref="G2" authorId="2" shapeId="0" xr:uid="{DB83DD4B-E19C-4E8B-99D7-6F9A8F7CC0A5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Misschien alleen pitjes meenemen?</t>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="3" shapeId="0" xr:uid="{59BC5554-BFA1-46BF-9828-A270F56E3B18}">
+    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{59BC5554-BFA1-46BF-9828-A270F56E3B18}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -89,7 +68,7 @@
     https://www.projectgezond.nl/ongekookt-gekookt-gewicht/</t>
       </text>
     </comment>
-    <comment ref="D9" authorId="4" shapeId="0" xr:uid="{1279AFAD-A42C-4246-A791-793FBB8AFE46}">
+    <comment ref="D9" authorId="2" shapeId="0" xr:uid="{1279AFAD-A42C-4246-A791-793FBB8AFE46}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -97,7 +76,7 @@
     https://www.bolster.nl/bolcourgette-ola-redonda-cucurbita-pepo/p11499</t>
       </text>
     </comment>
-    <comment ref="D10" authorId="5" shapeId="0" xr:uid="{9864A5EC-2E25-483C-BA0B-F3F399F44829}">
+    <comment ref="D10" authorId="3" shapeId="0" xr:uid="{9864A5EC-2E25-483C-BA0B-F3F399F44829}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -105,7 +84,7 @@
     https://chefspick.co.uk/lentils-dry-to-cooked-weight/</t>
       </text>
     </comment>
-    <comment ref="D11" authorId="6" shapeId="0" xr:uid="{E499170A-5406-4E8D-8752-7FA430492323}">
+    <comment ref="D11" authorId="4" shapeId="0" xr:uid="{E499170A-5406-4E8D-8752-7FA430492323}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -113,7 +92,7 @@
     https://www.voedingscentrum.nl/nl/service/vraag-en-antwoord/gezonde-voeding-en-voedingsstoffen/wat-zijn-peulvruchten-en-hoe-maak-ik-ze-klaar-.aspx</t>
       </text>
     </comment>
-    <comment ref="D13" authorId="7" shapeId="0" xr:uid="{B62164D4-C1A4-4571-BDAD-62C3F3193CF8}">
+    <comment ref="D13" authorId="5" shapeId="0" xr:uid="{B62164D4-C1A4-4571-BDAD-62C3F3193CF8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -121,7 +100,7 @@
     https://www.voedingscentrum.nl/nl/service/vraag-en-antwoord/gezonde-voeding-en-voedingsstoffen/wat-zijn-peulvruchten-en-hoe-maak-ik-ze-klaar-.aspx</t>
       </text>
     </comment>
-    <comment ref="D15" authorId="8" shapeId="0" xr:uid="{92EBB6A2-DE38-460E-AE2F-CE1BD988C684}">
+    <comment ref="D15" authorId="6" shapeId="0" xr:uid="{92EBB6A2-DE38-460E-AE2F-CE1BD988C684}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -131,7 +110,7 @@
     0.65</t>
       </text>
     </comment>
-    <comment ref="D21" authorId="9" shapeId="0" xr:uid="{6FEC102B-BCED-436D-8D0D-49E4BF901E91}">
+    <comment ref="D21" authorId="7" shapeId="0" xr:uid="{6FEC102B-BCED-436D-8D0D-49E4BF901E91}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -139,7 +118,7 @@
     https://www.voedingscentrum.nl/nl/service/vraag-en-antwoord/gezonde-voeding-en-voedingsstoffen/wat-zijn-peulvruchten-en-hoe-maak-ik-ze-klaar-.aspx</t>
       </text>
     </comment>
-    <comment ref="D24" authorId="10" shapeId="0" xr:uid="{65268310-0BBD-48D0-AAD6-2B7B1EA56950}">
+    <comment ref="D24" authorId="8" shapeId="0" xr:uid="{65268310-0BBD-48D0-AAD6-2B7B1EA56950}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -147,7 +126,7 @@
     https://www.voedingscentrum.nl/nl/service/vraag-en-antwoord/gezonde-voeding-en-voedingsstoffen/wat-zijn-peulvruchten-en-hoe-maak-ik-ze-klaar-.aspx</t>
       </text>
     </comment>
-    <comment ref="D25" authorId="11" shapeId="0" xr:uid="{02833F3C-933E-4ABD-A274-15F9A93EA71A}">
+    <comment ref="D25" authorId="9" shapeId="0" xr:uid="{02833F3C-933E-4ABD-A274-15F9A93EA71A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -155,7 +134,7 @@
     https://www.projectgezond.nl/ongekookt-gekookt-gewicht/</t>
       </text>
     </comment>
-    <comment ref="D26" authorId="12" shapeId="0" xr:uid="{39ACAB4A-FEDA-4E8C-81E2-E26333629922}">
+    <comment ref="D26" authorId="10" shapeId="0" xr:uid="{39ACAB4A-FEDA-4E8C-81E2-E26333629922}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -163,7 +142,7 @@
     https://www.bodystore.nl/advies/eiwitten/hoeveel-eiwit-zit-er-in-een-ei#:~:text=Hoeveel%20gram%20is%20%C3%A9%C3%A9n%20ei,g%20het%20wit%20van%20ei.</t>
       </text>
     </comment>
-    <comment ref="D27" authorId="13" shapeId="0" xr:uid="{5894814A-DBE1-4723-B869-DC68EFA2FE29}">
+    <comment ref="D27" authorId="11" shapeId="0" xr:uid="{5894814A-DBE1-4723-B869-DC68EFA2FE29}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -171,7 +150,7 @@
     https://www.bodystore.nl/advies/eiwitten/hoeveel-eiwit-zit-er-in-een-ei#:~:text=Hoeveel%20gram%20is%20%C3%A9%C3%A9n%20ei,g%20het%20wit%20van%20ei.</t>
       </text>
     </comment>
-    <comment ref="D28" authorId="14" shapeId="0" xr:uid="{F59D4CEC-30B5-420C-A1CD-4B4BF01D80F8}">
+    <comment ref="D28" authorId="12" shapeId="0" xr:uid="{F59D4CEC-30B5-420C-A1CD-4B4BF01D80F8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -179,7 +158,7 @@
     sap van citroen (30gram) gedeeld door gewicht hele citroen (128 gram)</t>
       </text>
     </comment>
-    <comment ref="D30" authorId="15" shapeId="0" xr:uid="{5A049A96-0451-49A1-B981-30A0124DBAC1}">
+    <comment ref="D30" authorId="13" shapeId="0" xr:uid="{5A049A96-0451-49A1-B981-30A0124DBAC1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -192,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="319">
   <si>
     <t>Granaatappel</t>
   </si>
@@ -230,9 +209,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Default is hele granaatappel. Deze exception gaat over de pitjes.</t>
-  </si>
-  <si>
     <t>Rijst zilvervlies- gekookt</t>
   </si>
   <si>
@@ -263,9 +239,6 @@
     <t>freekeh (of volkoren rijst)</t>
   </si>
   <si>
-    <t>Default is gekookte rijst. Exception gaat om ongekookte rijst</t>
-  </si>
-  <si>
     <t>Pasta volkoren gekookt</t>
   </si>
   <si>
@@ -410,12 +383,6 @@
     <t>volkoren couscous</t>
   </si>
   <si>
-    <t>Default is gekookte pasta. Exception gaat om ongekookte rijst</t>
-  </si>
-  <si>
-    <t>Default is gekookte couscous. Exception gaat om ongekookte rijst</t>
-  </si>
-  <si>
     <t>Mihoen gekookt</t>
   </si>
   <si>
@@ -467,27 +434,18 @@
     <t>of 500 gram gesneden groene of savooiekool</t>
   </si>
   <si>
-    <t>Rauw kool --&gt; gekookte kool</t>
-  </si>
-  <si>
     <t>Courgette rauw</t>
   </si>
   <si>
     <t>bolcourgettes</t>
   </si>
   <si>
-    <t>Bolcourgette heeft een ander gewicht</t>
-  </si>
-  <si>
     <t>Linzen groene en bruine gekookt</t>
   </si>
   <si>
     <t>Peulvruchten</t>
   </si>
   <si>
-    <t>Default gekookt linezn. Exception gaat om gedroogde linzen</t>
-  </si>
-  <si>
     <t>gedroogde bruine linzen</t>
   </si>
   <si>
@@ -584,21 +542,6 @@
     <t>syn_20</t>
   </si>
   <si>
-    <t>Aardappelen: ongekookt 100 gram = gekookt 110 gram (x 1,1)</t>
-  </si>
-  <si>
-    <t>Pasta: ongekookt 100 gram = gekookt 250 gram (x 2,5)</t>
-  </si>
-  <si>
-    <t>Rijst: ongekookt 100 gram = gekookt 295 gram (x 2,95)</t>
-  </si>
-  <si>
-    <t>Default gekookt erwten. Exception gaat om gedroogde linzen</t>
-  </si>
-  <si>
-    <t>Default gekookte linezn. Exception gaat om gedroogde linzen</t>
-  </si>
-  <si>
     <t>Gekookt/ongekookt</t>
   </si>
   <si>
@@ -629,9 +572,6 @@
     <t>Blik</t>
   </si>
   <si>
-    <t>Default is hele gewicht blik. Exception gaat om uitlekgewicht.  In de supermarkt koop je wel weer het 'hele' gewicht blik.</t>
-  </si>
-  <si>
     <t>Categorie exception</t>
   </si>
   <si>
@@ -986,9 +926,6 @@
     <t>of grote pot kikkererwten (uitlekgewicht ca. 500 gram)</t>
   </si>
   <si>
-    <t>Default gekookte kikkererwten. Exception gaat om gedroogde kikkererwten</t>
-  </si>
-  <si>
     <t>Kapucijners jonge blik/glas</t>
   </si>
   <si>
@@ -1061,9 +998,6 @@
     <t>gedroogde zwarte oogbonen</t>
   </si>
   <si>
-    <t>Default gekookte bonen. Exception gaat om gedroogde bonen</t>
-  </si>
-  <si>
     <t>Conversion_factor</t>
   </si>
   <si>
@@ -1073,9 +1007,6 @@
     <t>Aardappelen en knolgewassen</t>
   </si>
   <si>
-    <t>Rekent gare aardappels om naar het rauwe gewicht nodig</t>
-  </si>
-  <si>
     <t>gare aardappelen (ca. 150 gram)</t>
   </si>
   <si>
@@ -1088,12 +1019,6 @@
     <t>Eiwit kippenei rauw</t>
   </si>
   <si>
-    <t>Snijgewicht gesneden kool etc. checken</t>
-  </si>
-  <si>
-    <t>Exceptions URLS checken</t>
-  </si>
-  <si>
     <t>eigeel</t>
   </si>
   <si>
@@ -1154,18 +1079,12 @@
     <t>citroenrasp en citroensap</t>
   </si>
   <si>
-    <t>Default is alleen het sap. Exception gaat over hele citroen.</t>
-  </si>
-  <si>
     <t>Bouillon van blokje bereid</t>
   </si>
   <si>
     <t>Soepen</t>
   </si>
   <si>
-    <t>Default is alleen het blokje. Exception gaat over bereide bouillon</t>
-  </si>
-  <si>
     <t>(groente)bouillon met minder zout</t>
   </si>
   <si>
@@ -1197,9 +1116,6 @@
   </si>
   <si>
     <t>koppen sterke koffie</t>
-  </si>
-  <si>
-    <t>Checken of ik vermenigvuldig of deel door</t>
   </si>
   <si>
     <t>Tonijn in olie blik</t>
@@ -1313,238 +1229,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill>
@@ -2016,17 +1701,8 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D1" dT="2022-12-13T08:31:32.98" personId="{5B126FA9-A019-42B6-95DA-2E4A13442017}" id="{7D0EE02E-CBE4-48FE-B2F9-B789E0AEBE04}">
-    <text>default * dit is voor de voedingsstoffen.</text>
-  </threadedComment>
-  <threadedComment ref="D1" dT="2022-12-13T08:38:43.29" personId="{5B126FA9-A019-42B6-95DA-2E4A13442017}" id="{06D27D56-C18D-42B7-96AA-104FC599C9D4}" parentId="{7D0EE02E-CBE4-48FE-B2F9-B789E0AEBE04}">
-    <text>Maar sommige exceptions heb ik nodig voor de verpakkingsgroottes</text>
-  </threadedComment>
   <threadedComment ref="E1" dT="2023-01-26T09:15:53.49" personId="{5B126FA9-A019-42B6-95DA-2E4A13442017}" id="{62039513-6902-4492-920F-F5A388E475C0}">
     <text>1 if the conversed quantity of the product should be taken into account for the package size; 0 otherwise</text>
-  </threadedComment>
-  <threadedComment ref="G2" dT="2022-12-13T09:51:09.68" personId="{5B126FA9-A019-42B6-95DA-2E4A13442017}" id="{DB83DD4B-E19C-4E8B-99D7-6F9A8F7CC0A5}">
-    <text>Misschien alleen pitjes meenemen?</text>
   </threadedComment>
   <threadedComment ref="D3" dT="2022-12-13T09:50:46.95" personId="{5B126FA9-A019-42B6-95DA-2E4A13442017}" id="{59BC5554-BFA1-46BF-9828-A270F56E3B18}">
     <text>https://www.projectgezond.nl/ongekookt-gekookt-gewicht/</text>
@@ -2075,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY36"/>
+  <dimension ref="A1:AY32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,91 +1768,91 @@
   <sheetData>
     <row r="1" spans="1:51" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>129</v>
-      </c>
     </row>
-    <row r="2" spans="1:51" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1007</v>
       </c>
@@ -2193,11 +1869,9 @@
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G2" s="3"/>
       <c r="I2" t="s">
         <v>2</v>
       </c>
@@ -2231,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G3" s="3"/>
       <c r="J3" t="s">
@@ -2241,12 +1915,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1014</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2258,45 +1932,43 @@
         <v>0</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>21</v>
       </c>
-      <c r="R4" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="5" spans="1:51" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2157</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2308,150 +1980,148 @@
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>29</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>31</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>33</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>35</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>36</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>37</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>38</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>39</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>40</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
         <v>41</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" t="s">
         <v>42</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>43</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
         <v>44</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>46</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>47</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>48</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>49</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>50</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AI5" t="s">
         <v>51</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AJ5" t="s">
         <v>52</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AK5" t="s">
         <v>53</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AL5" t="s">
         <v>54</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AM5" t="s">
         <v>55</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AN5" t="s">
         <v>56</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AO5" t="s">
         <v>57</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AP5" t="s">
         <v>58</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AQ5" t="s">
         <v>59</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AR5" t="s">
         <v>60</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AS5" t="s">
         <v>61</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AT5" t="s">
         <v>62</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AU5" t="s">
         <v>63</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AV5" t="s">
         <v>64</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AW5" t="s">
         <v>65</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AX5" t="s">
         <v>66</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AY5" t="s">
         <v>67</v>
       </c>
-      <c r="AX5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="6" spans="1:51" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2158</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2463,24 +2133,22 @@
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3206</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2492,25 +2160,23 @@
         <v>0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s">
         <v>73</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" t="s">
         <v>75</v>
-      </c>
-      <c r="I7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
@@ -2518,10 +2184,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -2530,37 +2196,34 @@
         <v>0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
         <v>82</v>
       </c>
-      <c r="I8" t="s">
+      <c r="M8" t="s">
         <v>83</v>
       </c>
-      <c r="J8" t="s">
+      <c r="N8" t="s">
         <v>84</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>85</v>
       </c>
-      <c r="L8" t="s">
+      <c r="P8" t="s">
         <v>86</v>
-      </c>
-      <c r="M8" t="s">
-        <v>87</v>
-      </c>
-      <c r="N8" t="s">
-        <v>88</v>
-      </c>
-      <c r="O8" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
@@ -2568,10 +2231,10 @@
         <v>922</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D9" s="6">
         <v>1.4</v>
@@ -2580,13 +2243,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
@@ -2594,10 +2254,10 @@
         <v>970</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6">
         <v>2</v>
@@ -2606,22 +2266,19 @@
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
@@ -2629,10 +2286,10 @@
         <v>972</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D11" s="6">
         <v>3</v>
@@ -2641,13 +2298,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
@@ -2655,10 +2309,10 @@
         <v>5174</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
@@ -2667,13 +2321,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
@@ -2681,10 +2332,10 @@
         <v>2314</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D13" s="6">
         <v>3</v>
@@ -2693,21 +2344,18 @@
         <v>0</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3154</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -2719,16 +2367,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G14" s="3"/>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
@@ -2736,10 +2382,10 @@
         <v>196</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D15" s="6">
         <v>0.65</v>
@@ -2748,43 +2394,40 @@
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>142</v>
+      </c>
+      <c r="P15" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q15" t="s">
         <v>144</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="R15" t="s">
         <v>145</v>
-      </c>
-      <c r="H15" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" t="s">
-        <v>149</v>
-      </c>
-      <c r="J15" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" t="s">
-        <v>151</v>
-      </c>
-      <c r="L15" t="s">
-        <v>152</v>
-      </c>
-      <c r="M15" t="s">
-        <v>153</v>
-      </c>
-      <c r="N15" t="s">
-        <v>154</v>
-      </c>
-      <c r="O15" t="s">
-        <v>155</v>
-      </c>
-      <c r="P15" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>157</v>
-      </c>
-      <c r="R15" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
@@ -2792,10 +2435,10 @@
         <v>660</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D16" s="6">
         <v>0.65</v>
@@ -2804,58 +2447,55 @@
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="s">
+        <v>151</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>153</v>
+      </c>
+      <c r="P16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>155</v>
+      </c>
+      <c r="R16" t="s">
+        <v>156</v>
+      </c>
+      <c r="S16" t="s">
+        <v>157</v>
+      </c>
+      <c r="T16" t="s">
+        <v>158</v>
+      </c>
+      <c r="U16" t="s">
         <v>159</v>
       </c>
-      <c r="I16" t="s">
+      <c r="V16" t="s">
         <v>160</v>
       </c>
-      <c r="J16" t="s">
+      <c r="W16" t="s">
         <v>161</v>
-      </c>
-      <c r="K16" t="s">
-        <v>162</v>
-      </c>
-      <c r="L16" t="s">
-        <v>163</v>
-      </c>
-      <c r="M16" t="s">
-        <v>164</v>
-      </c>
-      <c r="N16" t="s">
-        <v>165</v>
-      </c>
-      <c r="O16" t="s">
-        <v>166</v>
-      </c>
-      <c r="P16" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>168</v>
-      </c>
-      <c r="R16" t="s">
-        <v>169</v>
-      </c>
-      <c r="S16" t="s">
-        <v>170</v>
-      </c>
-      <c r="T16" t="s">
-        <v>171</v>
-      </c>
-      <c r="U16" t="s">
-        <v>172</v>
-      </c>
-      <c r="V16" t="s">
-        <v>173</v>
-      </c>
-      <c r="W16" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
@@ -2863,10 +2503,10 @@
         <v>2900</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D17" s="6">
         <v>0.65</v>
@@ -2875,28 +2515,25 @@
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H17" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="M17" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
@@ -2904,10 +2541,10 @@
         <v>3049</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D18" s="6">
         <v>0.65</v>
@@ -2916,142 +2553,139 @@
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="s">
+        <v>177</v>
+      </c>
+      <c r="N18" t="s">
+        <v>178</v>
+      </c>
+      <c r="O18" t="s">
+        <v>179</v>
+      </c>
+      <c r="P18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>181</v>
+      </c>
+      <c r="R18" t="s">
+        <v>182</v>
+      </c>
+      <c r="S18" t="s">
+        <v>183</v>
+      </c>
+      <c r="T18" t="s">
+        <v>184</v>
+      </c>
+      <c r="U18" t="s">
         <v>185</v>
       </c>
-      <c r="I18" t="s">
+      <c r="V18" t="s">
         <v>186</v>
       </c>
-      <c r="J18" t="s">
+      <c r="W18" t="s">
         <v>187</v>
       </c>
-      <c r="K18" t="s">
+      <c r="X18" t="s">
         <v>188</v>
       </c>
-      <c r="L18" t="s">
+      <c r="Y18" t="s">
         <v>189</v>
       </c>
-      <c r="M18" t="s">
+      <c r="Z18" t="s">
         <v>190</v>
       </c>
-      <c r="N18" t="s">
+      <c r="AA18" t="s">
         <v>191</v>
       </c>
-      <c r="O18" t="s">
+      <c r="AB18" t="s">
         <v>192</v>
       </c>
-      <c r="P18" t="s">
+      <c r="AC18" t="s">
         <v>193</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="AD18" t="s">
         <v>194</v>
       </c>
-      <c r="R18" t="s">
+      <c r="AE18" t="s">
         <v>195</v>
       </c>
-      <c r="S18" t="s">
+      <c r="AF18" t="s">
         <v>196</v>
       </c>
-      <c r="T18" t="s">
+      <c r="AG18" t="s">
         <v>197</v>
       </c>
-      <c r="U18" t="s">
+      <c r="AH18" t="s">
         <v>198</v>
       </c>
-      <c r="V18" t="s">
+      <c r="AI18" t="s">
         <v>199</v>
       </c>
-      <c r="W18" t="s">
+      <c r="AJ18" t="s">
         <v>200</v>
       </c>
-      <c r="X18" t="s">
+      <c r="AK18" t="s">
         <v>201</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="AL18" t="s">
         <v>202</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AM18" t="s">
         <v>203</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AN18" t="s">
         <v>204</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AO18" t="s">
         <v>205</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AP18" t="s">
         <v>206</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AQ18" t="s">
         <v>207</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AR18" t="s">
         <v>208</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AS18" t="s">
         <v>209</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AT18" t="s">
         <v>210</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AU18" t="s">
         <v>211</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AV18" t="s">
         <v>212</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AW18" t="s">
         <v>213</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AX18" t="s">
         <v>214</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AY18" t="s">
         <v>215</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>217</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>218</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>219</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>221</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>222</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>223</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>224</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>225</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>226</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>227</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
@@ -3059,10 +2693,10 @@
         <v>3184</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D19" s="6">
         <v>0.65</v>
@@ -3071,37 +2705,34 @@
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H19" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="I19" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="J19" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="K19" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="N19" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="O19" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="P19" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
@@ -3109,10 +2740,10 @@
         <v>3185</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D20" s="6">
         <v>0.65</v>
@@ -3121,88 +2752,85 @@
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H20" t="s">
+        <v>225</v>
+      </c>
+      <c r="J20" t="s">
+        <v>225</v>
+      </c>
+      <c r="K20" t="s">
+        <v>227</v>
+      </c>
+      <c r="L20" t="s">
+        <v>228</v>
+      </c>
+      <c r="M20" t="s">
+        <v>229</v>
+      </c>
+      <c r="N20" t="s">
+        <v>230</v>
+      </c>
+      <c r="O20" t="s">
+        <v>231</v>
+      </c>
+      <c r="P20" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>233</v>
+      </c>
+      <c r="R20" t="s">
+        <v>234</v>
+      </c>
+      <c r="S20" t="s">
+        <v>235</v>
+      </c>
+      <c r="T20" t="s">
+        <v>236</v>
+      </c>
+      <c r="U20" t="s">
+        <v>237</v>
+      </c>
+      <c r="V20" t="s">
         <v>238</v>
       </c>
-      <c r="J20" t="s">
-        <v>238</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="W20" t="s">
+        <v>239</v>
+      </c>
+      <c r="X20" t="s">
         <v>240</v>
       </c>
-      <c r="L20" t="s">
+      <c r="Y20" t="s">
         <v>241</v>
       </c>
-      <c r="M20" t="s">
+      <c r="Z20" t="s">
         <v>242</v>
       </c>
-      <c r="N20" t="s">
+      <c r="AA20" t="s">
         <v>243</v>
       </c>
-      <c r="O20" t="s">
+      <c r="AB20" t="s">
         <v>244</v>
       </c>
-      <c r="P20" t="s">
+      <c r="AC20" t="s">
         <v>245</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="AD20" t="s">
         <v>246</v>
       </c>
-      <c r="R20" t="s">
+      <c r="AE20" t="s">
         <v>247</v>
       </c>
-      <c r="S20" t="s">
+      <c r="AF20" t="s">
         <v>248</v>
       </c>
-      <c r="T20" t="s">
+      <c r="AG20" t="s">
         <v>249</v>
       </c>
-      <c r="U20" t="s">
+      <c r="AH20" t="s">
         <v>250</v>
-      </c>
-      <c r="V20" t="s">
-        <v>251</v>
-      </c>
-      <c r="W20" t="s">
-        <v>252</v>
-      </c>
-      <c r="X20" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>261</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>262</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
@@ -3210,10 +2838,10 @@
         <v>3185</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D21" s="6">
         <v>3</v>
@@ -3222,13 +2850,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>264</v>
+        <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
@@ -3236,10 +2861,10 @@
         <v>5172</v>
       </c>
       <c r="B22" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D22" s="6">
         <v>0.65</v>
@@ -3248,19 +2873,16 @@
         <v>1</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H22" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="I22" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="J22" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
@@ -3268,10 +2890,10 @@
         <v>5176</v>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D23" s="6">
         <v>0.65</v>
@@ -3280,61 +2902,58 @@
         <v>1</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
+        <v>256</v>
+      </c>
+      <c r="I23" t="s">
+        <v>257</v>
+      </c>
+      <c r="J23" t="s">
+        <v>258</v>
+      </c>
+      <c r="K23" t="s">
+        <v>259</v>
+      </c>
+      <c r="L23" t="s">
+        <v>260</v>
+      </c>
+      <c r="M23" t="s">
+        <v>261</v>
+      </c>
+      <c r="N23" t="s">
+        <v>262</v>
+      </c>
+      <c r="O23" t="s">
+        <v>263</v>
+      </c>
+      <c r="P23" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>265</v>
+      </c>
+      <c r="R23" t="s">
+        <v>266</v>
+      </c>
+      <c r="S23" t="s">
+        <v>267</v>
+      </c>
+      <c r="T23" t="s">
+        <v>268</v>
+      </c>
+      <c r="U23" t="s">
+        <v>269</v>
+      </c>
+      <c r="V23" t="s">
         <v>270</v>
       </c>
-      <c r="I23" t="s">
+      <c r="W23" t="s">
         <v>271</v>
       </c>
-      <c r="J23" t="s">
+      <c r="X23" t="s">
         <v>272</v>
-      </c>
-      <c r="K23" t="s">
-        <v>273</v>
-      </c>
-      <c r="L23" t="s">
-        <v>274</v>
-      </c>
-      <c r="M23" t="s">
-        <v>275</v>
-      </c>
-      <c r="N23" t="s">
-        <v>276</v>
-      </c>
-      <c r="O23" t="s">
-        <v>277</v>
-      </c>
-      <c r="P23" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>279</v>
-      </c>
-      <c r="R23" t="s">
-        <v>280</v>
-      </c>
-      <c r="S23" t="s">
-        <v>281</v>
-      </c>
-      <c r="T23" t="s">
-        <v>282</v>
-      </c>
-      <c r="U23" t="s">
-        <v>283</v>
-      </c>
-      <c r="V23" t="s">
-        <v>284</v>
-      </c>
-      <c r="W23" t="s">
-        <v>285</v>
-      </c>
-      <c r="X23" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
@@ -3342,10 +2961,10 @@
         <v>5167</v>
       </c>
       <c r="B24" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6">
         <v>3</v>
@@ -3354,13 +2973,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
       <c r="H24" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
@@ -3368,10 +2984,10 @@
         <v>2325</v>
       </c>
       <c r="B25" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C25" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D25" s="6">
         <v>0.91</v>
@@ -3380,13 +2996,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
       <c r="H25" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.25">
@@ -3394,10 +3007,10 @@
         <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D26" s="6">
         <v>0.33</v>
@@ -3406,10 +3019,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H26" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
@@ -3417,10 +3030,10 @@
         <v>358</v>
       </c>
       <c r="B27" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D27" s="6">
         <v>0.67</v>
@@ -3429,13 +3042,13 @@
         <v>1</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H27" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="I27" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
@@ -3443,10 +3056,10 @@
         <v>1127</v>
       </c>
       <c r="B28" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="C28" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="D28" s="6">
         <v>0.24</v>
@@ -3455,55 +3068,52 @@
         <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>320</v>
+        <v>124</v>
       </c>
       <c r="H28" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="I28" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="J28" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="K28" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="L28" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="M28" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="N28" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="O28" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="P28" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="Q28" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="R28" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="S28" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="T28" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="U28" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="V28" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
@@ -3511,10 +3121,10 @@
         <v>1528</v>
       </c>
       <c r="B29" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C29" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D29" s="6">
         <f>10/500</f>
@@ -3524,25 +3134,22 @@
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>323</v>
+        <v>124</v>
       </c>
       <c r="H29" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="I29" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="J29" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="K29" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="L29" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
@@ -3550,10 +3157,10 @@
         <v>644</v>
       </c>
       <c r="B30" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C30" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="D30" s="6">
         <f>7.5/100</f>
@@ -3563,25 +3170,22 @@
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>335</v>
+        <v>124</v>
       </c>
       <c r="H30" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="I30" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="J30" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="K30" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="L30" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
@@ -3589,10 +3193,10 @@
         <v>1589</v>
       </c>
       <c r="B31" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C31" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D31" s="6">
         <v>0.7</v>
@@ -3601,10 +3205,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
@@ -3612,10 +3213,10 @@
         <v>1590</v>
       </c>
       <c r="B32" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="C32" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D32" s="6">
         <v>0.7</v>
@@ -3624,584 +3225,147 @@
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="8" t="s">
-        <v>299</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="expression" dxfId="59" priority="59">
-      <formula>K2 &lt;&gt;#REF!</formula>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="expression" dxfId="26" priority="38">
+      <formula>C1 &lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2 L2:BX2 F2:J2">
-    <cfRule type="expression" dxfId="58" priority="60">
+  <conditionalFormatting sqref="C5:C12">
+    <cfRule type="expression" dxfId="25" priority="41">
+      <formula>C5 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C27">
+    <cfRule type="expression" dxfId="24" priority="9">
+      <formula>C16 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="23" priority="2">
+      <formula>C30 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D4 G5:G7">
+    <cfRule type="expression" dxfId="22" priority="57">
       <formula>C2 &lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D3 F4:F9 F3:BX3">
-    <cfRule type="expression" dxfId="57" priority="58">
-      <formula>C3 &lt;&gt;#REF!</formula>
+  <conditionalFormatting sqref="C14:D14">
+    <cfRule type="expression" dxfId="21" priority="29">
+      <formula>C14 &lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H18:AY19 J20:AY20 H20:H21">
-    <cfRule type="expression" dxfId="56" priority="56">
-      <formula>H4 &lt;&gt;#REF!</formula>
+  <conditionalFormatting sqref="F4:F32">
+    <cfRule type="expression" dxfId="20" priority="8">
+      <formula>F4 &lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D4 G5:G7 G4:BV4">
-    <cfRule type="expression" dxfId="55" priority="57">
-      <formula>C4 &lt;&gt;#REF!</formula>
+  <conditionalFormatting sqref="F2:BX3">
+    <cfRule type="expression" dxfId="19" priority="58">
+      <formula>F2 &lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="54" priority="55">
-      <formula>J4 &lt;&gt;#REF!</formula>
+  <conditionalFormatting sqref="G14:I14">
+    <cfRule type="expression" dxfId="18" priority="26">
+      <formula>G14 &lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C6">
-    <cfRule type="expression" dxfId="53" priority="54">
-      <formula>C5 &lt;&gt;#REF!</formula>
+  <conditionalFormatting sqref="G4:BV4">
+    <cfRule type="expression" dxfId="17" priority="55">
+      <formula>G4 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="16" priority="46">
+      <formula>H9 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H13">
+    <cfRule type="expression" dxfId="15" priority="35">
+      <formula>H11 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H26">
+    <cfRule type="expression" dxfId="14" priority="7">
+      <formula>H25 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:I24">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>H24 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:I27">
+    <cfRule type="expression" dxfId="12" priority="6">
+      <formula>H27 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:L10">
+    <cfRule type="expression" dxfId="11" priority="44">
+      <formula>H10 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:L30">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>H30 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:M7">
+    <cfRule type="expression" dxfId="9" priority="51">
+      <formula>H7 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:M17">
+    <cfRule type="expression" dxfId="8" priority="24">
+      <formula>H17 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:M29">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>H29 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:S8">
+    <cfRule type="expression" dxfId="6" priority="49">
+      <formula>H8 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:V28">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>H28 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:Y16">
+    <cfRule type="expression" dxfId="4" priority="27">
+      <formula>H16 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:AA23">
+    <cfRule type="expression" dxfId="3" priority="18">
+      <formula>H22 &lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:AB1">
+    <cfRule type="expression" dxfId="2" priority="37">
+      <formula>H1 &lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:AY6">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="1" priority="53">
       <formula>H5 &lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="51" priority="52">
-      <formula>C7 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:M7">
-    <cfRule type="expression" dxfId="50" priority="51">
-      <formula>H7 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="49" priority="50">
-      <formula>C8 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:S8">
-    <cfRule type="expression" dxfId="48" priority="49">
-      <formula>H8 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="47" priority="47">
-      <formula>C9 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="46" priority="46">
-      <formula>H9 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="45" priority="45">
-      <formula>C10 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:L10">
-    <cfRule type="expression" dxfId="44" priority="44">
-      <formula>H10 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="43" priority="43">
-      <formula>C11 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="42" priority="42">
-      <formula>H11 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="41" priority="41">
-      <formula>C12 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="40" priority="40">
-      <formula>H12 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="39" priority="38">
-      <formula>C1 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:AB1">
-    <cfRule type="expression" dxfId="38" priority="37">
-      <formula>H1 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F12 F15:F20">
-    <cfRule type="expression" dxfId="37" priority="36">
-      <formula>F10 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="36" priority="35">
-      <formula>H13 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="35" priority="34">
-      <formula>F13 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="34" priority="33">
-      <formula>C14 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:I14">
-    <cfRule type="expression" dxfId="33" priority="31">
-      <formula>H14 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:I14">
-    <cfRule type="expression" dxfId="32" priority="32">
-      <formula>H14 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="31" priority="30">
-      <formula>F14 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="30" priority="29">
-      <formula>D14 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="29" priority="28">
-      <formula>C16 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16:Y16">
-    <cfRule type="expression" dxfId="28" priority="27">
-      <formula>H16 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="27" priority="26">
-      <formula>G14 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="26" priority="25">
-      <formula>C17 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:M17">
-    <cfRule type="expression" dxfId="25" priority="24">
-      <formula>H17 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="24" priority="23">
-      <formula>C18 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="23" priority="21">
-      <formula>C21 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="22" priority="20">
-      <formula>F21 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C23">
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>C22 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:AA23">
-    <cfRule type="expression" dxfId="20" priority="18">
-      <formula>H22 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F23">
-    <cfRule type="expression" dxfId="19" priority="17">
-      <formula>F22 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="18" priority="16">
-      <formula>C24 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:I24">
-    <cfRule type="expression" dxfId="17" priority="15">
-      <formula>H24 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="16" priority="14">
-      <formula>F24 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="15" priority="13">
-      <formula>C25 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="14" priority="12">
-      <formula>F25 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>H25 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="12" priority="10">
-      <formula>C26 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="11" priority="9">
-      <formula>C27 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F32">
-    <cfRule type="expression" dxfId="10" priority="8">
-      <formula>F26 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="9" priority="7">
-      <formula>H26 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:I27">
-    <cfRule type="expression" dxfId="8" priority="6">
-      <formula>H27 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28:V28">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>H28 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:M29">
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>H29 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>C30 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:L30">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>H30 &lt;&gt;#REF!</formula>
+  <conditionalFormatting sqref="H18:AY19 J20:AY20 H20:H21">
+    <cfRule type="expression" dxfId="0" priority="56">
+      <formula>H18 &lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736851C6-B70C-41E7-8F2E-7786E38C85B5}">
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:L33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f>IF(K8=0,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ref="L9:L33" si="0">IF(K9=0,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K12" s="6">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K14" s="6">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K17" s="6">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K18" s="6">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K19" s="6">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K20" s="6">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K21" s="6">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K22" s="6">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K23" s="6">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K24" s="6">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K25" s="6">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K26" s="6">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K27" s="6">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K28" s="6">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K29" s="6">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K30" s="6">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K31" s="6">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K32" s="6">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K33" s="6">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>K8 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>K9 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>K10 &lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>